--- a/documents/files_relationship.xlsx
+++ b/documents/files_relationship.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>内部でinclude</t>
     <rPh sb="0" eb="2">
@@ -27,12 +27,37 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>smartyの呼び出し</t>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「自動住所入力」のボタンをクリック</t>
+    <rPh sb="1" eb="7">
+      <t>ジドウジュウショニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>include</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>include</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -43,6 +68,24 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -72,15 +115,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -309,16 +360,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -327,7 +378,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8013700" y="2895600"/>
+          <a:off x="9423400" y="3289300"/>
           <a:ext cx="2146300" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -367,14 +418,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -385,9 +436,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5410200" y="3162300"/>
-          <a:ext cx="2603500" cy="63500"/>
+        <a:xfrm>
+          <a:off x="5410200" y="3225800"/>
+          <a:ext cx="4013200" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -415,16 +466,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>91948</xdr:rowOff>
+      <xdr:rowOff>66548</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -433,7 +484,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9055100" y="4279900"/>
+          <a:off x="10337800" y="4254500"/>
           <a:ext cx="1371600" cy="612648"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
@@ -442,8 +493,8 @@
             <a:gd name="adj2" fmla="val -8333"/>
             <a:gd name="adj3" fmla="val 18750"/>
             <a:gd name="adj4" fmla="val -16667"/>
-            <a:gd name="adj5" fmla="val -140402"/>
-            <a:gd name="adj6" fmla="val -33241"/>
+            <a:gd name="adj5" fmla="val -71994"/>
+            <a:gd name="adj6" fmla="val -25834"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -480,6 +531,375 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="カギ線コネクタ 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4054475" y="2028825"/>
+          <a:ext cx="1028700" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="5486400"/>
+          <a:ext cx="1600200" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>html/input_zip.php </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="カギ線コネクタ 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2933700" y="1638300"/>
+          <a:ext cx="952500" cy="4114800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 124000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6197600" y="5473700"/>
+          <a:ext cx="2476500" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>data/class_extends/page_extends/LC_Page_InputZip_Ex.php</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9779000" y="5486400"/>
+          <a:ext cx="2146300" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>data/class/page/LC_Page_InputZip.php</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="カギ線コネクタ 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4533900" y="5740400"/>
+          <a:ext cx="1663700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="カギ線コネクタ 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8674100" y="5740400"/>
+          <a:ext cx="1104900" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -807,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G7:H14"/>
+  <dimension ref="C7:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H25:H26"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -818,19 +1238,38 @@
     <col min="1" max="16384" width="12.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="7:8">
+    <row r="7" spans="6:8">
       <c r="H7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="7:8">
-      <c r="G14" s="1" t="s">
+    <row r="12" spans="6:8">
+      <c r="F12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="6:8">
+      <c r="H14" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="F25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
